--- a/src/test/resources/Testdata/TestData 2.xlsx
+++ b/src/test/resources/Testdata/TestData 2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28507"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\AssignmentThreeWithPOM\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27BFC540-030B-46B4-B703-5090D1A7EC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4197B412-1817-4FB5-9772-5654BD202DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,12 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Samsung Galaxy S24 Ultra</t>
+    <t>samsung galaxy s24 ultra Titanium Black 1T</t>
   </si>
   <si>
     <t>Samsung Selected</t>
@@ -58,16 +58,12 @@
   </si>
   <si>
     <t>eBay Jobs: Careers at eBay</t>
-  </si>
-  <si>
-    <t>Samsung is the phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -382,42 +378,42 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125"/>
-    <col min="2" max="2" customWidth="true" width="97.7109375"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="97.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -437,7 +433,7 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="0">
+      <c r="B2">
         <v>150000</v>
       </c>
     </row>

--- a/src/test/resources/Testdata/TestData 2.xlsx
+++ b/src/test/resources/Testdata/TestData 2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\AssignmentThreeWithPOM\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4197B412-1817-4FB5-9772-5654BD202DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD556EC-C036-4865-943C-79E98E828597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,33 +37,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Brand</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>Add to Cart</t>
   </si>
   <si>
     <t>samsung galaxy s24 ultra Titanium Black 1T</t>
   </si>
   <si>
+    <t>Career search</t>
+  </si>
+  <si>
+    <t>Jobs in Engineering: eBay Careers</t>
+  </si>
+  <si>
     <t>Samsung Selected</t>
   </si>
   <si>
-    <t>InfoTest</t>
-  </si>
-  <si>
-    <t>Buying as a guest</t>
-  </si>
-  <si>
-    <t>We connect people and build communities to create economic opportunity for all.</t>
-  </si>
-  <si>
-    <t>eBay Jobs: Careers at eBay</t>
+    <t>Samsung is the phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -378,43 +376,33 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="97.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125"/>
+    <col min="2" max="2" customWidth="true" width="97.7109375"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s" s="0">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B5" t="s" s="0">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -433,7 +421,7 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2">
+      <c r="B2" s="0">
         <v>150000</v>
       </c>
     </row>
